--- a/backend/src/main/resources/templates/template.xlsx
+++ b/backend/src/main/resources/templates/template.xlsx
@@ -37,27 +37,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">jx:area(lastCell="H11")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <rFont val="Liberation Mono;Courier New;Cousine;DejaVu Sans Mono;Lucida Sans Typewriter"/>
-            <family val="3"/>
+            <rFont val="JetBrains Mono"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="subjects" var="subject" lastCell="H11" direction="DOWN") 
+          <t xml:space="preserve">jx:each(items="subjects" var="subject" direction="DOWN" lastCell=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="JetBrains Mono"/>
+            <family val="0"/>
+          </rPr>
+          <t xml:space="preserve">"G11"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="JetBrains Mono"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">)
 </t>
         </r>
       </text>
@@ -67,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t xml:space="preserve">TRƯỜNG ĐẠI HỌC KHOA HỌC TỰ NHIÊN</t>
   </si>
@@ -96,10 +102,10 @@
     <t xml:space="preserve">${semester}</t>
   </si>
   <si>
-    <t xml:space="preserve">Class:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${student.schoolYear}</t>
+    <t xml:space="preserve">Faculty:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${student.falculty}</t>
   </si>
   <si>
     <t xml:space="preserve">BẢNG ĐIỂM</t>
@@ -111,7 +117,7 @@
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">v.2.0</t>
+    <t xml:space="preserve">v.2.7</t>
   </si>
   <si>
     <t xml:space="preserve">Header D</t>
@@ -126,19 +132,10 @@
     <t xml:space="preserve">${subject.finalScore}</t>
   </si>
   <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${rank}</t>
+    <t xml:space="preserve">Test filed</t>
   </si>
   <si>
     <t xml:space="preserve">Chữ kí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${gpa}</t>
   </si>
   <si>
     <t xml:space="preserve">{actionBy}</t>
@@ -151,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -200,8 +197,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Liberation Mono;Courier New;Cousine;DejaVu Sans Mono;Lucida Sans Typewriter"/>
-      <family val="3"/>
+      <name val="JetBrains Mono"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -441,10 +444,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -452,7 +455,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.22"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,7 +471,6 @@
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
@@ -476,7 +479,6 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -505,7 +507,6 @@
         <v>8</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -526,7 +527,6 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="8" t="s">
@@ -552,7 +552,6 @@
       <c r="G10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
@@ -568,7 +567,6 @@
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
     </row>
     <row r="12" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
@@ -578,54 +576,47 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="H12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="15"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="3"/>
+      <c r="G18" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="16">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/backend/src/main/resources/templates/template.xlsx
+++ b/backend/src/main/resources/templates/template.xlsx
@@ -68,6 +68,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Liberation Mono;Courier New;Cousine;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve">jx:area(lastCell="G100") 
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -117,7 +130,7 @@
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">v.2.7</t>
+    <t xml:space="preserve">v.2.8</t>
   </si>
   <si>
     <t xml:space="preserve">Header D</t>
@@ -148,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -205,6 +218,11 @@
       <sz val="10"/>
       <name val="JetBrains Mono"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Liberation Mono;Courier New;Cousine;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -444,10 +462,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -578,26 +596,56 @@
       <c r="G12" s="1"/>
       <c r="H12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="0"/>
+    </row>
+    <row r="14" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="0"/>
+    </row>
+    <row r="15" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="15"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="3" t="s">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="15"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -615,8 +663,8 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
